--- a/data/cs101/bad/dunn_Q1.xlsx
+++ b/data/cs101/bad/dunn_Q1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25600" windowHeight="19820"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -139,6 +139,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +480,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -489,9 +495,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="26" customHeight="1">
       <c r="B2" s="5" t="s">
@@ -674,10 +686,11 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="26">
       <c r="A14" s="11" t="s">
@@ -686,8 +699,13 @@
       <c r="C14" s="2">
         <v>0.05</v>
       </c>
+      <c r="G14" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G12:G14"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
